--- a/Project Master_컨버스 마이그레이션 구축_v0.1_20191203.xlsx
+++ b/Project Master_컨버스 마이그레이션 구축_v0.1_20191203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongtaewon/Google 드라이브/개인용/홍태원/진행업무/2019년/컨버스 마이그레이션 구축, 에스티컴/converse/001.착수/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29002A29-96B9-C24C-8451-B93515C5F5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41527772-AD70-D246-9A12-78EDBD711DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,14 @@
     <sheet name="WBS" sheetId="2" r:id="rId2"/>
     <sheet name="컨텐츠 준비 목록" sheetId="4" r:id="rId3"/>
     <sheet name="참고(메인)" sheetId="6" r:id="rId4"/>
-    <sheet name="참고(PLP)" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="참고(PDP)" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="참고(장바구니)" sheetId="9" state="hidden" r:id="rId7"/>
-    <sheet name="참고(마이페이지)" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="참고(로그인,회원가입)" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="통신판매업자 신원정보확인(메인, 푸터)" sheetId="14" r:id="rId5"/>
+    <sheet name="보증보험 가입사실 확인하기(메인, 푸터)" sheetId="15" r:id="rId6"/>
+    <sheet name="참고(교환 FAQ 내용)" sheetId="13" r:id="rId7"/>
+    <sheet name="참고(PLP)" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="참고(PDP)" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="참고(장바구니)" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="참고(마이페이지)" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="참고(로그인,회원가입)" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="244">
   <si>
     <t>7W</t>
   </si>
@@ -772,10 +775,6 @@
     <t>PC/MC 
 별도 등록 여부</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1. PDP 와 동일하게 이미지 준비 필요</t>
@@ -976,6 +975,99 @@
   </si>
   <si>
     <t>신규 교환 서비스 내용 추가 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 교환 반송 후 재배송 처리 되는 기간은 얼마나 소요 되나요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마이페이지 &gt; 교환 &amp; 반품 신청 에서 교환 접수 후 진행상태 확인이 가능 합니다.
+교환 반송한 상품이 물류센터에 도착 후 검수기간 3일(영업일 기준) 소요되며, 그 이후 재 배송 처리 진행 됩니다.   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상품의 교환 절차를 알려 주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 교환이 불가능한 대상에 대해 알려주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ftc.go.kr/www/bizCommView.do?key=232&amp;apv_perm_no=2016322016230200478&amp;pageUnit=10&amp;searchCnd=wrkr_no&amp;searchKrwd=2208874818&amp;pageIndex=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mall.sgic.co.kr/csh/iutf/sh/shop/CSHINFO004VM0.mvc?tm=3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 플로팅 배너</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기검색어 배치는 오픈 후 1주일 후부터 돌기 시작(기준 데이터를 쌓아야 하기에), 최초 오픈 시 미리 등록하는 방안 고려</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마이페이지 &gt; 교환 &amp; 반품 신청 에서 교환 접수 가능 합니다.
+교환 접수 방법은 아래와 같습니다.
+ ① 마이페이지 → 교환 &amp; 반품 신청
+ ② [교환 신청] 클릭
+ ③ 교환할 상품 사이즈 선택 → 수거지 &amp; 교환 상품 수령 주소 입력 → [다음단계] 클릭
+ ④ [교환 사유] 선택→ [교환] 선택
+※ 교환 접수 가능한 기준은 상품 수령 후 14일 이내에 상품 미훼손 및 미사용 한 경우에만 해당 합니다.
+     (ex : Tag 제거 및 시착이나 사용 등의 흔적이 있는 경우 상품가치 훼손 사유로 불가)
+※ 고객님 사유로 교환 시 발생되는 교환비 결제 방법은 선결제 입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕 (본문)"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 (본문)"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(신용카드 및 카카오페이 결제만 가능)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+※ 교환 접수 절차 없이 임의로 상품을 반송하실 경우 처리가 지연될 수 있습니다.
+※ 직접 택배사에 연락하여 상품을 반품하시는 경우 선불로 반송해 주셔야 합니다.
+※ 사이즈 교환 및 동일 상품에 대해서는 전체 수량만 가능 합니다. 
+(2개 상품 구매시, 2개 동시 교환 접수만 가능)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 아래 상품에 대해서는 교환 신청이 불가능 합니다. 
+ ① 부분 교환 불가능 (상품 2개 주문시, 반드시 2개 모두 교환 신청만 가능)
+ ② 색상 단위 교환 불가능 (동일 상품 사이즈만 교환 가능)
+ ③ 주문 및 교환 14일 이상 경과 상품
+ ④ 반품 처리 완료 및 택배 기사 수거 상품</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +1079,7 @@
     <numFmt numFmtId="176" formatCode="dd"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,8 +1393,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕 (본문)"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕 (본문)"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,7 +2236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2776,6 +2887,18 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3469,13 +3592,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3810000</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6067,6 +6190,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470028C7-CCAF-4844-A990-EB030ED72088}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31C063-9911-9C41-B07A-FA5B7F863046}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFE6155-3E74-8B42-B837-07E4F4001A20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -10845,11 +11013,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0D924-232C-4647-B188-161EC09CC750}">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -10952,10 +11120,10 @@
         <v>139</v>
       </c>
       <c r="H6" s="139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J6" s="139" t="s">
         <v>185</v>
@@ -11004,10 +11172,10 @@
         <v>142</v>
       </c>
       <c r="H8" s="194" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="209" t="s">
         <v>228</v>
-      </c>
-      <c r="I8" s="209" t="s">
-        <v>229</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="124" t="s">
@@ -11021,116 +11189,110 @@
       </c>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="2:14" ht="32" customHeight="1">
+    <row r="9" spans="2:14" ht="16">
       <c r="B9" s="98"/>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="194"/>
+      <c r="I9" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="140"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="90"/>
+    </row>
+    <row r="10" spans="2:14" ht="32" customHeight="1">
+      <c r="B10" s="98"/>
+      <c r="C10" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="146" t="s">
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="146" t="s">
         <v>156</v>
-      </c>
-      <c r="H9" s="194"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="M9" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="90"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="146" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="194"/>
       <c r="I10" s="209"/>
       <c r="J10" s="140"/>
       <c r="K10" s="124" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L10" s="124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M10" s="102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" customHeight="1">
+    <row r="11" spans="2:14" ht="35" customHeight="1">
       <c r="B11" s="98"/>
-      <c r="C11" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="194"/>
+        <v>159</v>
+      </c>
+      <c r="H11" s="194" t="s">
+        <v>241</v>
+      </c>
       <c r="I11" s="209"/>
       <c r="J11" s="140"/>
       <c r="K11" s="124" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L11" s="124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="2:14" ht="16">
+    <row r="12" spans="2:14" ht="16.5" customHeight="1">
       <c r="B12" s="98"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="C12" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="146" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="H12" s="194"/>
       <c r="I12" s="209"/>
       <c r="J12" s="140"/>
       <c r="K12" s="124" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L12" s="124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" s="102" t="s">
         <v>163</v>
       </c>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="2:14" ht="116" customHeight="1">
+    <row r="13" spans="2:14" ht="16">
       <c r="B13" s="98"/>
-      <c r="C13" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="208" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="199" t="s">
-        <v>207</v>
-      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="194"/>
       <c r="I13" s="209"/>
       <c r="J13" s="140"/>
       <c r="K13" s="124" t="s">
@@ -11140,36 +11302,46 @@
         <v>151</v>
       </c>
       <c r="M13" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="2:14" ht="59" customHeight="1">
+    <row r="14" spans="2:14" ht="116" customHeight="1">
       <c r="B14" s="98"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="206"/>
+      <c r="C14" s="207" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="208" t="s">
+        <v>197</v>
+      </c>
       <c r="H14" s="199" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I14" s="209"/>
       <c r="J14" s="140"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="102"/>
+      <c r="K14" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="102" t="s">
+        <v>164</v>
+      </c>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="2:14" ht="106" customHeight="1">
+    <row r="15" spans="2:14" ht="59" customHeight="1">
       <c r="B15" s="98"/>
       <c r="C15" s="118"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
-      <c r="G15" s="148"/>
+      <c r="G15" s="206"/>
       <c r="H15" s="199" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I15" s="209"/>
       <c r="J15" s="140"/>
@@ -11178,16 +11350,16 @@
       <c r="M15" s="102"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="2:14" ht="16.5" customHeight="1">
+    <row r="16" spans="2:14" ht="106" customHeight="1">
       <c r="B16" s="98"/>
       <c r="C16" s="118"/>
       <c r="D16" s="116"/>
       <c r="E16" s="116"/>
       <c r="F16" s="116"/>
-      <c r="G16" s="146" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="194"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="199" t="s">
+        <v>208</v>
+      </c>
       <c r="I16" s="209"/>
       <c r="J16" s="140"/>
       <c r="K16" s="124"/>
@@ -11202,7 +11374,7 @@
       <c r="E17" s="116"/>
       <c r="F17" s="116"/>
       <c r="G17" s="146" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H17" s="194"/>
       <c r="I17" s="209"/>
@@ -11219,7 +11391,7 @@
       <c r="E18" s="116"/>
       <c r="F18" s="116"/>
       <c r="G18" s="146" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H18" s="194"/>
       <c r="I18" s="209"/>
@@ -11236,7 +11408,7 @@
       <c r="E19" s="116"/>
       <c r="F19" s="116"/>
       <c r="G19" s="146" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H19" s="194"/>
       <c r="I19" s="209"/>
@@ -11252,8 +11424,8 @@
       <c r="D20" s="116"/>
       <c r="E20" s="116"/>
       <c r="F20" s="116"/>
-      <c r="G20" s="103" t="s">
-        <v>210</v>
+      <c r="G20" s="146" t="s">
+        <v>204</v>
       </c>
       <c r="H20" s="194"/>
       <c r="I20" s="209"/>
@@ -11270,7 +11442,7 @@
       <c r="E21" s="116"/>
       <c r="F21" s="116"/>
       <c r="G21" s="103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H21" s="194"/>
       <c r="I21" s="209"/>
@@ -11287,7 +11459,7 @@
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
       <c r="G22" s="103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H22" s="194"/>
       <c r="I22" s="209"/>
@@ -11304,7 +11476,7 @@
       <c r="E23" s="116"/>
       <c r="F23" s="116"/>
       <c r="G23" s="103" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H23" s="194"/>
       <c r="I23" s="209"/>
@@ -11320,8 +11492,8 @@
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
       <c r="F24" s="116"/>
-      <c r="G24" s="146" t="s">
-        <v>193</v>
+      <c r="G24" s="103" t="s">
+        <v>221</v>
       </c>
       <c r="H24" s="194"/>
       <c r="I24" s="209"/>
@@ -11337,8 +11509,8 @@
       <c r="D25" s="116"/>
       <c r="E25" s="116"/>
       <c r="F25" s="116"/>
-      <c r="G25" s="101" t="s">
-        <v>213</v>
+      <c r="G25" s="146" t="s">
+        <v>192</v>
       </c>
       <c r="H25" s="194"/>
       <c r="I25" s="209"/>
@@ -11355,7 +11527,7 @@
       <c r="E26" s="116"/>
       <c r="F26" s="116"/>
       <c r="G26" s="101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H26" s="194"/>
       <c r="I26" s="209"/>
@@ -11372,7 +11544,7 @@
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
       <c r="G27" s="101" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H27" s="194"/>
       <c r="I27" s="209"/>
@@ -11389,7 +11561,7 @@
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
       <c r="G28" s="101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" s="194"/>
       <c r="I28" s="209"/>
@@ -11406,7 +11578,7 @@
       <c r="E29" s="116"/>
       <c r="F29" s="116"/>
       <c r="G29" s="101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H29" s="194"/>
       <c r="I29" s="209"/>
@@ -11423,7 +11595,7 @@
       <c r="E30" s="116"/>
       <c r="F30" s="116"/>
       <c r="G30" s="101" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30" s="194"/>
       <c r="I30" s="209"/>
@@ -11439,8 +11611,8 @@
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
       <c r="F31" s="116"/>
-      <c r="G31" s="103" t="s">
-        <v>222</v>
+      <c r="G31" s="101" t="s">
+        <v>217</v>
       </c>
       <c r="H31" s="194"/>
       <c r="I31" s="209"/>
@@ -11456,8 +11628,8 @@
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
       <c r="F32" s="116"/>
-      <c r="G32" s="146" t="s">
-        <v>194</v>
+      <c r="G32" s="103" t="s">
+        <v>221</v>
       </c>
       <c r="H32" s="194"/>
       <c r="I32" s="209"/>
@@ -11473,8 +11645,8 @@
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
       <c r="F33" s="116"/>
-      <c r="G33" s="101" t="s">
-        <v>219</v>
+      <c r="G33" s="146" t="s">
+        <v>193</v>
       </c>
       <c r="H33" s="194"/>
       <c r="I33" s="209"/>
@@ -11491,7 +11663,7 @@
       <c r="E34" s="116"/>
       <c r="F34" s="116"/>
       <c r="G34" s="101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H34" s="194"/>
       <c r="I34" s="209"/>
@@ -11508,7 +11680,7 @@
       <c r="E35" s="116"/>
       <c r="F35" s="116"/>
       <c r="G35" s="101" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H35" s="194"/>
       <c r="I35" s="209"/>
@@ -11524,8 +11696,8 @@
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
       <c r="F36" s="116"/>
-      <c r="G36" s="103" t="s">
-        <v>222</v>
+      <c r="G36" s="101" t="s">
+        <v>220</v>
       </c>
       <c r="H36" s="194"/>
       <c r="I36" s="209"/>
@@ -11541,8 +11713,8 @@
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
       <c r="F37" s="116"/>
-      <c r="G37" s="146" t="s">
-        <v>195</v>
+      <c r="G37" s="103" t="s">
+        <v>221</v>
       </c>
       <c r="H37" s="194"/>
       <c r="I37" s="209"/>
@@ -11558,8 +11730,8 @@
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
-      <c r="G38" s="101" t="s">
-        <v>223</v>
+      <c r="G38" s="146" t="s">
+        <v>194</v>
       </c>
       <c r="H38" s="194"/>
       <c r="I38" s="209"/>
@@ -11576,7 +11748,7 @@
       <c r="E39" s="116"/>
       <c r="F39" s="116"/>
       <c r="G39" s="101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H39" s="194"/>
       <c r="I39" s="209"/>
@@ -11592,8 +11764,8 @@
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
       <c r="F40" s="116"/>
-      <c r="G40" s="146" t="s">
-        <v>196</v>
+      <c r="G40" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="H40" s="194"/>
       <c r="I40" s="209"/>
@@ -11609,8 +11781,8 @@
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
       <c r="F41" s="116"/>
-      <c r="G41" s="101" t="s">
-        <v>213</v>
+      <c r="G41" s="146" t="s">
+        <v>195</v>
       </c>
       <c r="H41" s="194"/>
       <c r="I41" s="209"/>
@@ -11627,7 +11799,7 @@
       <c r="E42" s="116"/>
       <c r="F42" s="116"/>
       <c r="G42" s="101" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H42" s="194"/>
       <c r="I42" s="209"/>
@@ -11644,7 +11816,7 @@
       <c r="E43" s="116"/>
       <c r="F43" s="116"/>
       <c r="G43" s="101" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H43" s="194"/>
       <c r="I43" s="209"/>
@@ -11661,7 +11833,7 @@
       <c r="E44" s="116"/>
       <c r="F44" s="116"/>
       <c r="G44" s="101" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H44" s="194"/>
       <c r="I44" s="209"/>
@@ -11677,17 +11849,15 @@
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
       <c r="F45" s="116"/>
-      <c r="G45" s="146" t="s">
-        <v>200</v>
+      <c r="G45" s="101" t="s">
+        <v>220</v>
       </c>
       <c r="H45" s="194"/>
       <c r="I45" s="209"/>
       <c r="J45" s="140"/>
       <c r="K45" s="124"/>
       <c r="L45" s="124"/>
-      <c r="M45" s="102" t="s">
-        <v>165</v>
-      </c>
+      <c r="M45" s="102"/>
       <c r="N45" s="90"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" customHeight="1">
@@ -11696,60 +11866,58 @@
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
       <c r="F46" s="116"/>
-      <c r="G46" s="147" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="195"/>
-      <c r="I46" s="210"/>
-      <c r="J46" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="L46" s="124" t="s">
-        <v>148</v>
-      </c>
-      <c r="M46" s="135" t="s">
-        <v>166</v>
+      <c r="G46" s="146" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" s="194"/>
+      <c r="I46" s="209"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="102" t="s">
+        <v>165</v>
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="47" spans="2:14" ht="16.5" customHeight="1">
       <c r="B47" s="98"/>
       <c r="C47" s="118"/>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
       <c r="F47" s="116"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="196"/>
+      <c r="G47" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="195"/>
       <c r="I47" s="210"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="102" t="s">
-        <v>167</v>
+      <c r="J47" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="135" t="s">
+        <v>166</v>
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="2:14" ht="16.5" customHeight="1">
+    <row r="48" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B48" s="98"/>
       <c r="C48" s="118"/>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
       <c r="F48" s="116"/>
-      <c r="G48" s="146" t="s">
-        <v>202</v>
-      </c>
-      <c r="H48" s="194"/>
-      <c r="I48" s="209"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="210"/>
       <c r="J48" s="140"/>
       <c r="K48" s="124"/>
-      <c r="L48" s="124" t="s">
-        <v>151</v>
-      </c>
+      <c r="L48" s="124"/>
       <c r="M48" s="102" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N48" s="90"/>
     </row>
@@ -11759,76 +11927,78 @@
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
       <c r="F49" s="116"/>
-      <c r="G49" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="H49" s="197"/>
+      <c r="G49" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49" s="194"/>
       <c r="I49" s="209"/>
       <c r="J49" s="140"/>
-      <c r="K49" s="124" t="s">
-        <v>168</v>
-      </c>
+      <c r="K49" s="124"/>
       <c r="L49" s="124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M49" s="102" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N49" s="90"/>
     </row>
     <row r="50" spans="2:14" ht="16.5" customHeight="1">
       <c r="B50" s="98"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="149" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H50" s="197"/>
       <c r="I50" s="209"/>
       <c r="J50" s="140"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
+      <c r="K50" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50" s="124" t="s">
+        <v>152</v>
+      </c>
       <c r="M50" s="102" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="51" spans="2:14" ht="16.5" customHeight="1">
       <c r="B51" s="98"/>
-      <c r="C51" s="186" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="210"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="197"/>
+      <c r="I51" s="209"/>
       <c r="J51" s="140"/>
       <c r="K51" s="124"/>
       <c r="L51" s="124"/>
-      <c r="M51" s="135"/>
+      <c r="M51" s="102" t="s">
+        <v>164</v>
+      </c>
       <c r="N51" s="90"/>
     </row>
     <row r="52" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B52" s="98"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="103"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="209"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="210"/>
       <c r="J52" s="140"/>
       <c r="K52" s="124"/>
       <c r="L52" s="124"/>
-      <c r="M52" s="102"/>
+      <c r="M52" s="135"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" hidden="1" customHeight="1">
@@ -11836,9 +12006,9 @@
       <c r="C53" s="187"/>
       <c r="D53" s="177"/>
       <c r="E53" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="101"/>
+        <v>61</v>
+      </c>
+      <c r="F53" s="103"/>
       <c r="G53" s="146"/>
       <c r="H53" s="194"/>
       <c r="I53" s="209"/>
@@ -11853,9 +12023,9 @@
       <c r="C54" s="187"/>
       <c r="D54" s="177"/>
       <c r="E54" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="103"/>
+        <v>62</v>
+      </c>
+      <c r="F54" s="101"/>
       <c r="G54" s="146"/>
       <c r="H54" s="194"/>
       <c r="I54" s="209"/>
@@ -11870,9 +12040,9 @@
       <c r="C55" s="187"/>
       <c r="D55" s="177"/>
       <c r="E55" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="101"/>
+        <v>63</v>
+      </c>
+      <c r="F55" s="103"/>
       <c r="G55" s="146"/>
       <c r="H55" s="194"/>
       <c r="I55" s="209"/>
@@ -11887,9 +12057,9 @@
       <c r="C56" s="187"/>
       <c r="D56" s="177"/>
       <c r="E56" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="103"/>
+        <v>64</v>
+      </c>
+      <c r="F56" s="101"/>
       <c r="G56" s="146"/>
       <c r="H56" s="194"/>
       <c r="I56" s="209"/>
@@ -11903,10 +12073,10 @@
       <c r="B57" s="98"/>
       <c r="C57" s="187"/>
       <c r="D57" s="177"/>
-      <c r="E57" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="104"/>
+      <c r="E57" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="103"/>
       <c r="G57" s="146"/>
       <c r="H57" s="194"/>
       <c r="I57" s="209"/>
@@ -11919,11 +12089,11 @@
     <row r="58" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B58" s="98"/>
       <c r="C58" s="187"/>
-      <c r="D58" s="182" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="104"/>
       <c r="G58" s="146"/>
       <c r="H58" s="194"/>
       <c r="I58" s="209"/>
@@ -11934,12 +12104,12 @@
       <c r="N58" s="90"/>
     </row>
     <row r="59" spans="2:14" ht="16.5" hidden="1" customHeight="1">
-      <c r="B59" s="84"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="187"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="101" t="s">
-        <v>61</v>
-      </c>
+      <c r="D59" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="101"/>
       <c r="F59" s="101"/>
       <c r="G59" s="146"/>
       <c r="H59" s="194"/>
@@ -11955,7 +12125,7 @@
       <c r="C60" s="187"/>
       <c r="D60" s="183"/>
       <c r="E60" s="101" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F60" s="101"/>
       <c r="G60" s="146"/>
@@ -11972,7 +12142,7 @@
       <c r="C61" s="187"/>
       <c r="D61" s="183"/>
       <c r="E61" s="101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="101"/>
       <c r="G61" s="146"/>
@@ -11989,7 +12159,7 @@
       <c r="C62" s="187"/>
       <c r="D62" s="183"/>
       <c r="E62" s="101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="101"/>
       <c r="G62" s="146"/>
@@ -12006,7 +12176,7 @@
       <c r="C63" s="187"/>
       <c r="D63" s="183"/>
       <c r="E63" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F63" s="101"/>
       <c r="G63" s="146"/>
@@ -12023,7 +12193,7 @@
       <c r="C64" s="187"/>
       <c r="D64" s="183"/>
       <c r="E64" s="101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F64" s="101"/>
       <c r="G64" s="146"/>
@@ -12038,9 +12208,9 @@
     <row r="65" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B65" s="84"/>
       <c r="C65" s="187"/>
-      <c r="D65" s="184"/>
+      <c r="D65" s="183"/>
       <c r="E65" s="101" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F65" s="101"/>
       <c r="G65" s="146"/>
@@ -12055,10 +12225,10 @@
     <row r="66" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B66" s="84"/>
       <c r="C66" s="187"/>
-      <c r="D66" s="176" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="101"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="101" t="s">
+        <v>66</v>
+      </c>
       <c r="F66" s="101"/>
       <c r="G66" s="146"/>
       <c r="H66" s="194"/>
@@ -12072,10 +12242,10 @@
     <row r="67" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B67" s="84"/>
       <c r="C67" s="187"/>
-      <c r="D67" s="177"/>
-      <c r="E67" s="101" t="s">
-        <v>61</v>
-      </c>
+      <c r="D67" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="101"/>
       <c r="F67" s="101"/>
       <c r="G67" s="146"/>
       <c r="H67" s="194"/>
@@ -12091,7 +12261,7 @@
       <c r="C68" s="187"/>
       <c r="D68" s="177"/>
       <c r="E68" s="101" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F68" s="101"/>
       <c r="G68" s="146"/>
@@ -12108,7 +12278,7 @@
       <c r="C69" s="187"/>
       <c r="D69" s="177"/>
       <c r="E69" s="101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F69" s="101"/>
       <c r="G69" s="146"/>
@@ -12125,9 +12295,9 @@
       <c r="C70" s="187"/>
       <c r="D70" s="177"/>
       <c r="E70" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="105"/>
+        <v>73</v>
+      </c>
+      <c r="F70" s="101"/>
       <c r="G70" s="146"/>
       <c r="H70" s="194"/>
       <c r="I70" s="209"/>
@@ -12140,11 +12310,11 @@
     <row r="71" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B71" s="84"/>
       <c r="C71" s="187"/>
-      <c r="D71" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="101"/>
-      <c r="F71" s="114"/>
+      <c r="D71" s="177"/>
+      <c r="E71" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="105"/>
       <c r="G71" s="146"/>
       <c r="H71" s="194"/>
       <c r="I71" s="209"/>
@@ -12154,17 +12324,15 @@
       <c r="M71" s="102"/>
       <c r="N71" s="90"/>
     </row>
-    <row r="72" spans="2:14" ht="16">
+    <row r="72" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B72" s="84"/>
       <c r="C72" s="187"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="153" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="154"/>
-      <c r="G72" s="146" t="s">
-        <v>187</v>
-      </c>
+      <c r="D72" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="101"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="146"/>
       <c r="H72" s="194"/>
       <c r="I72" s="209"/>
       <c r="J72" s="140"/>
@@ -12177,10 +12345,12 @@
       <c r="B73" s="84"/>
       <c r="C73" s="187"/>
       <c r="D73" s="183"/>
-      <c r="E73" s="154"/>
+      <c r="E73" s="153" t="s">
+        <v>76</v>
+      </c>
       <c r="F73" s="154"/>
       <c r="G73" s="146" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H73" s="194"/>
       <c r="I73" s="209"/>
@@ -12194,10 +12364,10 @@
       <c r="B74" s="84"/>
       <c r="C74" s="187"/>
       <c r="D74" s="183"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
       <c r="G74" s="146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H74" s="194"/>
       <c r="I74" s="209"/>
@@ -12207,15 +12377,15 @@
       <c r="M74" s="102"/>
       <c r="N74" s="90"/>
     </row>
-    <row r="75" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="75" spans="2:14" ht="16">
       <c r="B75" s="84"/>
       <c r="C75" s="187"/>
-      <c r="D75" s="184"/>
-      <c r="E75" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="101"/>
-      <c r="G75" s="146"/>
+      <c r="D75" s="183"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="155"/>
+      <c r="G75" s="146" t="s">
+        <v>182</v>
+      </c>
       <c r="H75" s="194"/>
       <c r="I75" s="209"/>
       <c r="J75" s="140"/>
@@ -12224,13 +12394,13 @@
       <c r="M75" s="102"/>
       <c r="N75" s="90"/>
     </row>
-    <row r="76" spans="2:14" ht="16" hidden="1" customHeight="1">
+    <row r="76" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B76" s="84"/>
       <c r="C76" s="187"/>
-      <c r="D76" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="101"/>
+      <c r="D76" s="184"/>
+      <c r="E76" s="101" t="s">
+        <v>77</v>
+      </c>
       <c r="F76" s="101"/>
       <c r="G76" s="146"/>
       <c r="H76" s="194"/>
@@ -12241,13 +12411,13 @@
       <c r="M76" s="102"/>
       <c r="N76" s="90"/>
     </row>
-    <row r="77" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="77" spans="2:14" ht="16" hidden="1" customHeight="1">
       <c r="B77" s="84"/>
       <c r="C77" s="187"/>
-      <c r="D77" s="183"/>
-      <c r="E77" s="101" t="s">
-        <v>61</v>
-      </c>
+      <c r="D77" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="101"/>
       <c r="F77" s="101"/>
       <c r="G77" s="146"/>
       <c r="H77" s="194"/>
@@ -12263,7 +12433,7 @@
       <c r="C78" s="187"/>
       <c r="D78" s="183"/>
       <c r="E78" s="101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F78" s="101"/>
       <c r="G78" s="146"/>
@@ -12280,7 +12450,7 @@
       <c r="C79" s="187"/>
       <c r="D79" s="183"/>
       <c r="E79" s="101" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F79" s="101"/>
       <c r="G79" s="146"/>
@@ -12296,79 +12466,76 @@
       <c r="B80" s="84"/>
       <c r="C80" s="187"/>
       <c r="D80" s="183"/>
-      <c r="E80" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="106"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="198"/>
-      <c r="I80" s="211"/>
-      <c r="J80" s="141"/>
-      <c r="K80" s="125"/>
-      <c r="L80" s="125"/>
-      <c r="M80" s="107"/>
+      <c r="E80" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="101"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="194"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="124"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="102"/>
       <c r="N80" s="90"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B81" s="84"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="101" t="s">
+      <c r="C81" s="187"/>
+      <c r="D81" s="183"/>
+      <c r="E81" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="106"/>
+      <c r="G81" s="150"/>
+      <c r="H81" s="198"/>
+      <c r="I81" s="211"/>
+      <c r="J81" s="141"/>
+      <c r="K81" s="125"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="90"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" hidden="1" customHeight="1">
+      <c r="B82" s="84"/>
+      <c r="C82" s="189"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="F81" s="101"/>
-      <c r="G81" s="146"/>
-      <c r="H81" s="194"/>
-      <c r="I81" s="209"/>
-      <c r="J81" s="140"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
-      <c r="M81" s="102"/>
-      <c r="N81" s="90"/>
-    </row>
-    <row r="82" spans="1:14" ht="76" customHeight="1">
-      <c r="A82" s="108"/>
-      <c r="B82" s="98"/>
-      <c r="C82" s="190" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="153"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="146" t="s">
-        <v>171</v>
-      </c>
+      <c r="F82" s="101"/>
+      <c r="G82" s="146"/>
       <c r="H82" s="194"/>
       <c r="I82" s="209"/>
       <c r="J82" s="140"/>
-      <c r="K82" s="124" t="s">
-        <v>162</v>
-      </c>
-      <c r="L82" s="124" t="s">
-        <v>172</v>
-      </c>
-      <c r="M82" s="102" t="s">
-        <v>173</v>
-      </c>
+      <c r="K82" s="124"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="102"/>
       <c r="N82" s="90"/>
     </row>
-    <row r="83" spans="1:14" ht="16">
+    <row r="83" spans="1:14" ht="76" customHeight="1">
       <c r="A83" s="108"/>
       <c r="B83" s="98"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="116"/>
+      <c r="C83" s="190" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="153"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
       <c r="G83" s="146" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H83" s="194"/>
       <c r="I83" s="209"/>
       <c r="J83" s="140"/>
-      <c r="K83" s="124"/>
-      <c r="L83" s="124"/>
+      <c r="K83" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="L83" s="124" t="s">
+        <v>172</v>
+      </c>
       <c r="M83" s="102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N83" s="90"/>
     </row>
@@ -12376,11 +12543,11 @@
       <c r="A84" s="108"/>
       <c r="B84" s="98"/>
       <c r="C84" s="191"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
+      <c r="D84" s="154"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
       <c r="G84" s="146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H84" s="194"/>
       <c r="I84" s="209"/>
@@ -12388,7 +12555,7 @@
       <c r="K84" s="124"/>
       <c r="L84" s="124"/>
       <c r="M84" s="102" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N84" s="90"/>
     </row>
@@ -12400,27 +12567,27 @@
       <c r="E85" s="115"/>
       <c r="F85" s="115"/>
       <c r="G85" s="146" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="H85" s="194"/>
       <c r="I85" s="209"/>
       <c r="J85" s="140"/>
       <c r="K85" s="124"/>
       <c r="L85" s="124"/>
-      <c r="M85" s="102"/>
+      <c r="M85" s="102" t="s">
+        <v>173</v>
+      </c>
       <c r="N85" s="90"/>
     </row>
     <row r="86" spans="1:14" ht="16">
       <c r="A86" s="108"/>
       <c r="B86" s="98"/>
       <c r="C86" s="191"/>
-      <c r="D86" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
+      <c r="D86" s="155"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
       <c r="G86" s="146" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H86" s="194"/>
       <c r="I86" s="209"/>
@@ -12430,16 +12597,18 @@
       <c r="M86" s="102"/>
       <c r="N86" s="90"/>
     </row>
-    <row r="87" spans="1:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:14" ht="16">
       <c r="A87" s="108"/>
       <c r="B87" s="98"/>
       <c r="C87" s="191"/>
       <c r="D87" s="99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" s="99"/>
       <c r="F87" s="99"/>
-      <c r="G87" s="146"/>
+      <c r="G87" s="146" t="s">
+        <v>176</v>
+      </c>
       <c r="H87" s="194"/>
       <c r="I87" s="209"/>
       <c r="J87" s="140"/>
@@ -12452,8 +12621,8 @@
       <c r="A88" s="108"/>
       <c r="B88" s="98"/>
       <c r="C88" s="191"/>
-      <c r="D88" s="182" t="s">
-        <v>82</v>
+      <c r="D88" s="99" t="s">
+        <v>81</v>
       </c>
       <c r="E88" s="99"/>
       <c r="F88" s="99"/>
@@ -12470,10 +12639,10 @@
       <c r="A89" s="108"/>
       <c r="B89" s="98"/>
       <c r="C89" s="191"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="99" t="s">
-        <v>83</v>
-      </c>
+      <c r="D89" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="99"/>
       <c r="F89" s="99"/>
       <c r="G89" s="146"/>
       <c r="H89" s="194"/>
@@ -12488,9 +12657,9 @@
       <c r="A90" s="108"/>
       <c r="B90" s="98"/>
       <c r="C90" s="191"/>
-      <c r="D90" s="184"/>
+      <c r="D90" s="183"/>
       <c r="E90" s="99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F90" s="99"/>
       <c r="G90" s="146"/>
@@ -12502,68 +12671,69 @@
       <c r="M90" s="102"/>
       <c r="N90" s="90"/>
     </row>
-    <row r="91" spans="1:14" ht="16.5" customHeight="1">
-      <c r="B91" s="84"/>
-      <c r="C91" s="185" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="146" t="s">
-        <v>178</v>
-      </c>
+    <row r="91" spans="1:14" ht="16.5" hidden="1" customHeight="1">
+      <c r="A91" s="108"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="191"/>
+      <c r="D91" s="184"/>
+      <c r="E91" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="99"/>
+      <c r="G91" s="146"/>
       <c r="H91" s="194"/>
       <c r="I91" s="209"/>
       <c r="J91" s="140"/>
       <c r="K91" s="124"/>
       <c r="L91" s="124"/>
-      <c r="M91" s="102" t="s">
-        <v>165</v>
-      </c>
+      <c r="M91" s="102"/>
       <c r="N91" s="90"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" customHeight="1">
       <c r="B92" s="84"/>
-      <c r="C92" s="185"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="115"/>
+      <c r="C92" s="185" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
       <c r="G92" s="146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H92" s="194"/>
       <c r="I92" s="209"/>
       <c r="J92" s="140"/>
       <c r="K92" s="124"/>
       <c r="L92" s="124"/>
-      <c r="M92" s="135" t="s">
-        <v>155</v>
+      <c r="M92" s="102" t="s">
+        <v>165</v>
       </c>
       <c r="N92" s="90"/>
     </row>
-    <row r="93" spans="1:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="93" spans="1:14" ht="16.5" customHeight="1">
       <c r="B93" s="84"/>
       <c r="C93" s="185"/>
-      <c r="D93" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="146"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="115"/>
+      <c r="G93" s="146" t="s">
+        <v>179</v>
+      </c>
       <c r="H93" s="194"/>
       <c r="I93" s="209"/>
       <c r="J93" s="140"/>
       <c r="K93" s="124"/>
       <c r="L93" s="124"/>
-      <c r="M93" s="102"/>
+      <c r="M93" s="135" t="s">
+        <v>155</v>
+      </c>
       <c r="N93" s="90"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B94" s="84"/>
       <c r="C94" s="185"/>
       <c r="D94" s="99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94" s="99"/>
       <c r="F94" s="99"/>
@@ -12578,11 +12748,9 @@
     </row>
     <row r="95" spans="1:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B95" s="84"/>
-      <c r="C95" s="185" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="182" t="s">
-        <v>88</v>
+      <c r="C95" s="185"/>
+      <c r="D95" s="99" t="s">
+        <v>87</v>
       </c>
       <c r="E95" s="99"/>
       <c r="F95" s="99"/>
@@ -12597,11 +12765,13 @@
     </row>
     <row r="96" spans="1:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B96" s="84"/>
-      <c r="C96" s="185"/>
-      <c r="D96" s="183"/>
-      <c r="E96" s="99" t="s">
-        <v>89</v>
-      </c>
+      <c r="C96" s="185" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="182" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="99"/>
       <c r="F96" s="99"/>
       <c r="G96" s="146"/>
       <c r="H96" s="194"/>
@@ -12615,9 +12785,9 @@
     <row r="97" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B97" s="84"/>
       <c r="C97" s="185"/>
-      <c r="D97" s="184"/>
+      <c r="D97" s="183"/>
       <c r="E97" s="99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F97" s="99"/>
       <c r="G97" s="146"/>
@@ -12632,10 +12802,10 @@
     <row r="98" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B98" s="84"/>
       <c r="C98" s="185"/>
-      <c r="D98" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="99"/>
+      <c r="D98" s="184"/>
+      <c r="E98" s="99" t="s">
+        <v>90</v>
+      </c>
       <c r="F98" s="99"/>
       <c r="G98" s="146"/>
       <c r="H98" s="194"/>
@@ -12648,10 +12818,10 @@
     </row>
     <row r="99" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B99" s="84"/>
-      <c r="C99" s="185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="99"/>
+      <c r="C99" s="185"/>
+      <c r="D99" s="99" t="s">
+        <v>91</v>
+      </c>
       <c r="E99" s="99"/>
       <c r="F99" s="99"/>
       <c r="G99" s="146"/>
@@ -12665,11 +12835,11 @@
     </row>
     <row r="100" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B100" s="84"/>
-      <c r="C100" s="185"/>
-      <c r="D100" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="E100" s="101"/>
+      <c r="C100" s="185" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
       <c r="F100" s="99"/>
       <c r="G100" s="146"/>
       <c r="H100" s="194"/>
@@ -12683,10 +12853,10 @@
     <row r="101" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B101" s="84"/>
       <c r="C101" s="185"/>
-      <c r="D101" s="179"/>
-      <c r="E101" s="99" t="s">
-        <v>94</v>
-      </c>
+      <c r="D101" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="101"/>
       <c r="F101" s="99"/>
       <c r="G101" s="146"/>
       <c r="H101" s="194"/>
@@ -12702,7 +12872,7 @@
       <c r="C102" s="185"/>
       <c r="D102" s="179"/>
       <c r="E102" s="99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F102" s="99"/>
       <c r="G102" s="146"/>
@@ -12717,10 +12887,10 @@
     <row r="103" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B103" s="84"/>
       <c r="C103" s="185"/>
-      <c r="D103" s="176" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" s="99"/>
+      <c r="D103" s="179"/>
+      <c r="E103" s="99" t="s">
+        <v>95</v>
+      </c>
       <c r="F103" s="99"/>
       <c r="G103" s="146"/>
       <c r="H103" s="194"/>
@@ -12734,10 +12904,10 @@
     <row r="104" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B104" s="84"/>
       <c r="C104" s="185"/>
-      <c r="D104" s="177"/>
-      <c r="E104" s="99" t="s">
-        <v>97</v>
-      </c>
+      <c r="D104" s="176" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="99"/>
       <c r="F104" s="99"/>
       <c r="G104" s="146"/>
       <c r="H104" s="194"/>
@@ -12751,9 +12921,9 @@
     <row r="105" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B105" s="84"/>
       <c r="C105" s="185"/>
-      <c r="D105" s="178"/>
+      <c r="D105" s="177"/>
       <c r="E105" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F105" s="99"/>
       <c r="G105" s="146"/>
@@ -12768,10 +12938,10 @@
     <row r="106" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B106" s="84"/>
       <c r="C106" s="185"/>
-      <c r="D106" s="181" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="99"/>
+      <c r="D106" s="178"/>
+      <c r="E106" s="99" t="s">
+        <v>98</v>
+      </c>
       <c r="F106" s="99"/>
       <c r="G106" s="146"/>
       <c r="H106" s="194"/>
@@ -12785,10 +12955,10 @@
     <row r="107" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B107" s="84"/>
       <c r="C107" s="185"/>
-      <c r="D107" s="181"/>
-      <c r="E107" s="99" t="s">
-        <v>94</v>
-      </c>
+      <c r="D107" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="99"/>
       <c r="F107" s="99"/>
       <c r="G107" s="146"/>
       <c r="H107" s="194"/>
@@ -12802,10 +12972,10 @@
     <row r="108" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B108" s="84"/>
       <c r="C108" s="185"/>
-      <c r="D108" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="99"/>
+      <c r="D108" s="181"/>
+      <c r="E108" s="99" t="s">
+        <v>94</v>
+      </c>
       <c r="F108" s="99"/>
       <c r="G108" s="146"/>
       <c r="H108" s="194"/>
@@ -12819,13 +12989,13 @@
     <row r="109" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B109" s="84"/>
       <c r="C109" s="185"/>
-      <c r="D109" s="138" t="s">
-        <v>101</v>
+      <c r="D109" s="137" t="s">
+        <v>100</v>
       </c>
       <c r="E109" s="99"/>
       <c r="F109" s="99"/>
-      <c r="G109" s="102"/>
-      <c r="H109" s="199"/>
+      <c r="G109" s="146"/>
+      <c r="H109" s="194"/>
       <c r="I109" s="209"/>
       <c r="J109" s="140"/>
       <c r="K109" s="124"/>
@@ -12836,8 +13006,8 @@
     <row r="110" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B110" s="84"/>
       <c r="C110" s="185"/>
-      <c r="D110" s="137" t="s">
-        <v>102</v>
+      <c r="D110" s="138" t="s">
+        <v>101</v>
       </c>
       <c r="E110" s="99"/>
       <c r="F110" s="99"/>
@@ -12854,7 +13024,7 @@
       <c r="B111" s="84"/>
       <c r="C111" s="185"/>
       <c r="D111" s="137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="99"/>
       <c r="F111" s="99"/>
@@ -12871,7 +13041,7 @@
       <c r="B112" s="84"/>
       <c r="C112" s="185"/>
       <c r="D112" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" s="99"/>
       <c r="F112" s="99"/>
@@ -12887,12 +13057,10 @@
     <row r="113" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B113" s="84"/>
       <c r="C113" s="185"/>
-      <c r="D113" s="176" t="s">
-        <v>105</v>
-      </c>
-      <c r="E113" s="99" t="s">
-        <v>106</v>
-      </c>
+      <c r="D113" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="99"/>
       <c r="F113" s="99"/>
       <c r="G113" s="102"/>
       <c r="H113" s="199"/>
@@ -12906,9 +13074,11 @@
     <row r="114" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B114" s="84"/>
       <c r="C114" s="185"/>
-      <c r="D114" s="177"/>
+      <c r="D114" s="176" t="s">
+        <v>105</v>
+      </c>
       <c r="E114" s="99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F114" s="99"/>
       <c r="G114" s="102"/>
@@ -12923,9 +13093,9 @@
     <row r="115" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B115" s="84"/>
       <c r="C115" s="185"/>
-      <c r="D115" s="178"/>
+      <c r="D115" s="177"/>
       <c r="E115" s="99" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F115" s="99"/>
       <c r="G115" s="102"/>
@@ -12940,10 +13110,10 @@
     <row r="116" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B116" s="84"/>
       <c r="C116" s="185"/>
-      <c r="D116" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="99"/>
+      <c r="D116" s="178"/>
+      <c r="E116" s="99" t="s">
+        <v>94</v>
+      </c>
       <c r="F116" s="99"/>
       <c r="G116" s="102"/>
       <c r="H116" s="199"/>
@@ -12957,13 +13127,13 @@
     <row r="117" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B117" s="84"/>
       <c r="C117" s="185"/>
-      <c r="D117" s="179" t="s">
-        <v>109</v>
+      <c r="D117" s="99" t="s">
+        <v>108</v>
       </c>
       <c r="E117" s="99"/>
       <c r="F117" s="99"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="194"/>
+      <c r="G117" s="102"/>
+      <c r="H117" s="199"/>
       <c r="I117" s="209"/>
       <c r="J117" s="140"/>
       <c r="K117" s="124"/>
@@ -12974,10 +13144,10 @@
     <row r="118" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B118" s="84"/>
       <c r="C118" s="185"/>
-      <c r="D118" s="179"/>
-      <c r="E118" s="99" t="s">
-        <v>110</v>
-      </c>
+      <c r="D118" s="179" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="99"/>
       <c r="F118" s="99"/>
       <c r="G118" s="146"/>
       <c r="H118" s="194"/>
@@ -12993,7 +13163,7 @@
       <c r="C119" s="185"/>
       <c r="D119" s="179"/>
       <c r="E119" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F119" s="99"/>
       <c r="G119" s="146"/>
@@ -13008,10 +13178,10 @@
     <row r="120" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B120" s="84"/>
       <c r="C120" s="185"/>
-      <c r="D120" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="99"/>
+      <c r="D120" s="179"/>
+      <c r="E120" s="99" t="s">
+        <v>111</v>
+      </c>
       <c r="F120" s="99"/>
       <c r="G120" s="146"/>
       <c r="H120" s="194"/>
@@ -13026,7 +13196,7 @@
       <c r="B121" s="84"/>
       <c r="C121" s="185"/>
       <c r="D121" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E121" s="99"/>
       <c r="F121" s="99"/>
@@ -13043,7 +13213,7 @@
       <c r="B122" s="84"/>
       <c r="C122" s="185"/>
       <c r="D122" s="105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E122" s="99"/>
       <c r="F122" s="99"/>
@@ -13058,10 +13228,10 @@
     </row>
     <row r="123" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B123" s="84"/>
-      <c r="C123" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="D123" s="99"/>
+      <c r="C123" s="185"/>
+      <c r="D123" s="105" t="s">
+        <v>114</v>
+      </c>
       <c r="E123" s="99"/>
       <c r="F123" s="99"/>
       <c r="G123" s="146"/>
@@ -13075,10 +13245,10 @@
     </row>
     <row r="124" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B124" s="84"/>
-      <c r="C124" s="185"/>
-      <c r="D124" s="99" t="s">
-        <v>116</v>
-      </c>
+      <c r="C124" s="185" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" s="99"/>
       <c r="E124" s="99"/>
       <c r="F124" s="99"/>
       <c r="G124" s="146"/>
@@ -13092,10 +13262,10 @@
     </row>
     <row r="125" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B125" s="84"/>
-      <c r="C125" s="185" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="99"/>
+      <c r="C125" s="185"/>
+      <c r="D125" s="99" t="s">
+        <v>116</v>
+      </c>
       <c r="E125" s="99"/>
       <c r="F125" s="99"/>
       <c r="G125" s="146"/>
@@ -13109,10 +13279,10 @@
     </row>
     <row r="126" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B126" s="84"/>
-      <c r="C126" s="185"/>
-      <c r="D126" s="99" t="s">
-        <v>118</v>
-      </c>
+      <c r="C126" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="99"/>
       <c r="E126" s="99"/>
       <c r="F126" s="99"/>
       <c r="G126" s="146"/>
@@ -13126,50 +13296,48 @@
     </row>
     <row r="127" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B127" s="84"/>
-      <c r="C127" s="158" t="s">
+      <c r="C127" s="185"/>
+      <c r="D127" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="146"/>
+      <c r="H127" s="194"/>
+      <c r="I127" s="209"/>
+      <c r="J127" s="140"/>
+      <c r="K127" s="124"/>
+      <c r="L127" s="124"/>
+      <c r="M127" s="102"/>
+      <c r="N127" s="90"/>
+    </row>
+    <row r="128" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+      <c r="B128" s="84"/>
+      <c r="C128" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="99"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="149" t="s">
+      <c r="D128" s="99"/>
+      <c r="E128" s="100"/>
+      <c r="F128" s="100"/>
+      <c r="G128" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="H127" s="197"/>
-      <c r="I127" s="209"/>
-      <c r="J127" s="142"/>
-      <c r="K127" s="126"/>
-      <c r="L127" s="126"/>
-      <c r="M127" s="109"/>
-      <c r="N127" s="90"/>
-    </row>
-    <row r="128" spans="2:14" ht="16.5" hidden="1" customHeight="1">
-      <c r="B128" s="98"/>
-      <c r="C128" s="186" t="s">
+      <c r="H128" s="197"/>
+      <c r="I128" s="209"/>
+      <c r="J128" s="142"/>
+      <c r="K128" s="126"/>
+      <c r="L128" s="126"/>
+      <c r="M128" s="109"/>
+      <c r="N128" s="90"/>
+    </row>
+    <row r="129" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+      <c r="B129" s="98"/>
+      <c r="C129" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="D128" s="99"/>
-      <c r="E128" s="99"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="151"/>
-      <c r="H128" s="200"/>
-      <c r="I128" s="212"/>
-      <c r="J128" s="143"/>
-      <c r="K128" s="127"/>
-      <c r="L128" s="127"/>
-      <c r="M128" s="132"/>
-      <c r="N128" s="90"/>
-    </row>
-    <row r="129" spans="2:14" ht="43.75" hidden="1" customHeight="1">
-      <c r="B129" s="98"/>
-      <c r="C129" s="187"/>
-      <c r="D129" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="F129" s="137"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
       <c r="G129" s="151"/>
       <c r="H129" s="200"/>
       <c r="I129" s="212"/>
@@ -13179,34 +13347,36 @@
       <c r="M129" s="132"/>
       <c r="N129" s="90"/>
     </row>
-    <row r="130" spans="2:14" ht="16.5" hidden="1" customHeight="1">
+    <row r="130" spans="2:14" ht="43.75" hidden="1" customHeight="1">
       <c r="B130" s="98"/>
       <c r="C130" s="187"/>
-      <c r="D130" s="176" t="s">
-        <v>123</v>
-      </c>
-      <c r="E130" s="176" t="s">
-        <v>124</v>
-      </c>
-      <c r="F130" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="G130" s="146"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="209"/>
-      <c r="J130" s="140"/>
-      <c r="K130" s="124"/>
-      <c r="L130" s="124"/>
-      <c r="M130" s="102"/>
+      <c r="D130" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F130" s="137"/>
+      <c r="G130" s="151"/>
+      <c r="H130" s="200"/>
+      <c r="I130" s="212"/>
+      <c r="J130" s="143"/>
+      <c r="K130" s="127"/>
+      <c r="L130" s="127"/>
+      <c r="M130" s="132"/>
       <c r="N130" s="90"/>
     </row>
     <row r="131" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B131" s="98"/>
       <c r="C131" s="187"/>
-      <c r="D131" s="177"/>
-      <c r="E131" s="177"/>
+      <c r="D131" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="176" t="s">
+        <v>124</v>
+      </c>
       <c r="F131" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G131" s="146"/>
       <c r="H131" s="194"/>
@@ -13221,9 +13391,9 @@
       <c r="B132" s="98"/>
       <c r="C132" s="187"/>
       <c r="D132" s="177"/>
-      <c r="E132" s="178"/>
+      <c r="E132" s="177"/>
       <c r="F132" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" s="146"/>
       <c r="H132" s="194"/>
@@ -13238,27 +13408,27 @@
       <c r="B133" s="98"/>
       <c r="C133" s="187"/>
       <c r="D133" s="177"/>
-      <c r="E133" s="176" t="s">
-        <v>128</v>
-      </c>
-      <c r="F133" s="137"/>
-      <c r="G133" s="133"/>
-      <c r="H133" s="201"/>
-      <c r="I133" s="213"/>
-      <c r="J133" s="144"/>
-      <c r="K133" s="128"/>
-      <c r="L133" s="128"/>
-      <c r="M133" s="133"/>
+      <c r="E133" s="178"/>
+      <c r="F133" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" s="146"/>
+      <c r="H133" s="194"/>
+      <c r="I133" s="209"/>
+      <c r="J133" s="140"/>
+      <c r="K133" s="124"/>
+      <c r="L133" s="124"/>
+      <c r="M133" s="102"/>
       <c r="N133" s="90"/>
     </row>
     <row r="134" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B134" s="98"/>
       <c r="C134" s="187"/>
       <c r="D134" s="177"/>
-      <c r="E134" s="177"/>
-      <c r="F134" s="137" t="s">
-        <v>88</v>
-      </c>
+      <c r="E134" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="137"/>
       <c r="G134" s="133"/>
       <c r="H134" s="201"/>
       <c r="I134" s="213"/>
@@ -13274,7 +13444,7 @@
       <c r="D135" s="177"/>
       <c r="E135" s="177"/>
       <c r="F135" s="137" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G135" s="133"/>
       <c r="H135" s="201"/>
@@ -13291,7 +13461,7 @@
       <c r="D136" s="177"/>
       <c r="E136" s="177"/>
       <c r="F136" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G136" s="133"/>
       <c r="H136" s="201"/>
@@ -13308,7 +13478,7 @@
       <c r="D137" s="177"/>
       <c r="E137" s="177"/>
       <c r="F137" s="137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G137" s="133"/>
       <c r="H137" s="201"/>
@@ -13325,7 +13495,7 @@
       <c r="D138" s="177"/>
       <c r="E138" s="177"/>
       <c r="F138" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G138" s="133"/>
       <c r="H138" s="201"/>
@@ -13340,9 +13510,9 @@
       <c r="B139" s="98"/>
       <c r="C139" s="187"/>
       <c r="D139" s="177"/>
-      <c r="E139" s="178"/>
+      <c r="E139" s="177"/>
       <c r="F139" s="137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G139" s="133"/>
       <c r="H139" s="201"/>
@@ -13357,17 +13527,17 @@
       <c r="B140" s="98"/>
       <c r="C140" s="187"/>
       <c r="D140" s="177"/>
-      <c r="E140" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="F140" s="137"/>
-      <c r="G140" s="152"/>
-      <c r="H140" s="202"/>
-      <c r="I140" s="214"/>
-      <c r="J140" s="145"/>
-      <c r="K140" s="129"/>
-      <c r="L140" s="129"/>
-      <c r="M140" s="134"/>
+      <c r="E140" s="178"/>
+      <c r="F140" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="G140" s="133"/>
+      <c r="H140" s="201"/>
+      <c r="I140" s="213"/>
+      <c r="J140" s="144"/>
+      <c r="K140" s="128"/>
+      <c r="L140" s="128"/>
+      <c r="M140" s="133"/>
       <c r="N140" s="90"/>
     </row>
     <row r="141" spans="2:14" ht="16.5" hidden="1" customHeight="1">
@@ -13375,7 +13545,7 @@
       <c r="C141" s="187"/>
       <c r="D141" s="177"/>
       <c r="E141" s="137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F141" s="137"/>
       <c r="G141" s="152"/>
@@ -13392,16 +13562,16 @@
       <c r="C142" s="187"/>
       <c r="D142" s="177"/>
       <c r="E142" s="137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F142" s="137"/>
-      <c r="G142" s="146"/>
-      <c r="H142" s="194"/>
-      <c r="I142" s="209"/>
-      <c r="J142" s="140"/>
-      <c r="K142" s="124"/>
-      <c r="L142" s="124"/>
-      <c r="M142" s="102"/>
+      <c r="G142" s="152"/>
+      <c r="H142" s="202"/>
+      <c r="I142" s="214"/>
+      <c r="J142" s="145"/>
+      <c r="K142" s="129"/>
+      <c r="L142" s="129"/>
+      <c r="M142" s="134"/>
       <c r="N142" s="90"/>
     </row>
     <row r="143" spans="2:14" ht="16.5" hidden="1" customHeight="1">
@@ -13409,7 +13579,7 @@
       <c r="C143" s="187"/>
       <c r="D143" s="177"/>
       <c r="E143" s="137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F143" s="137"/>
       <c r="G143" s="146"/>
@@ -13421,92 +13591,109 @@
       <c r="M143" s="102"/>
       <c r="N143" s="90"/>
     </row>
-    <row r="144" spans="2:14" ht="16.5" customHeight="1">
+    <row r="144" spans="2:14" ht="16.5" hidden="1" customHeight="1">
       <c r="B144" s="98"/>
       <c r="C144" s="187"/>
       <c r="D144" s="177"/>
-      <c r="E144" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="F144" s="114"/>
-      <c r="G144" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="H144" s="197" t="s">
-        <v>233</v>
-      </c>
-      <c r="I144" s="216" t="s">
-        <v>229</v>
-      </c>
-      <c r="J144" s="142"/>
-      <c r="K144" s="126"/>
-      <c r="L144" s="126"/>
-      <c r="M144" s="109"/>
+      <c r="E144" s="137" t="s">
+        <v>137</v>
+      </c>
+      <c r="F144" s="137"/>
+      <c r="G144" s="146"/>
+      <c r="H144" s="194"/>
+      <c r="I144" s="209"/>
+      <c r="J144" s="140"/>
+      <c r="K144" s="124"/>
+      <c r="L144" s="124"/>
+      <c r="M144" s="102"/>
       <c r="N144" s="90"/>
     </row>
     <row r="145" spans="2:14" ht="16.5" customHeight="1">
       <c r="B145" s="98"/>
-      <c r="C145" s="188"/>
-      <c r="D145" s="180"/>
-      <c r="E145" s="156" t="s">
+      <c r="C145" s="187"/>
+      <c r="D145" s="177"/>
+      <c r="E145" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" s="114"/>
+      <c r="G145" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="H145" s="197" t="s">
+        <v>232</v>
+      </c>
+      <c r="I145" s="216" t="s">
+        <v>228</v>
+      </c>
+      <c r="J145" s="142"/>
+      <c r="K145" s="126"/>
+      <c r="L145" s="126"/>
+      <c r="M145" s="109"/>
+      <c r="N145" s="90"/>
+    </row>
+    <row r="146" spans="2:14" ht="16.5" customHeight="1">
+      <c r="B146" s="98"/>
+      <c r="C146" s="188"/>
+      <c r="D146" s="180"/>
+      <c r="E146" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="F145" s="156"/>
-      <c r="G145" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="H145" s="203"/>
-      <c r="I145" s="215"/>
-      <c r="J145" s="204"/>
-      <c r="K145" s="192"/>
-      <c r="L145" s="192"/>
-      <c r="M145" s="193"/>
-      <c r="N145" s="90"/>
-    </row>
-    <row r="146" spans="2:14" ht="16" thickBot="1">
-      <c r="B146" s="110"/>
-      <c r="C146" s="87"/>
-      <c r="D146" s="86"/>
-      <c r="E146" s="86"/>
-      <c r="F146" s="86"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="122"/>
-      <c r="K146" s="122"/>
-      <c r="L146" s="122"/>
-      <c r="M146" s="89"/>
-      <c r="N146" s="111"/>
+      <c r="F146" s="156"/>
+      <c r="G146" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="H146" s="203"/>
+      <c r="I146" s="215"/>
+      <c r="J146" s="204"/>
+      <c r="K146" s="192"/>
+      <c r="L146" s="192"/>
+      <c r="M146" s="193"/>
+      <c r="N146" s="90"/>
+    </row>
+    <row r="147" spans="2:14" ht="16" thickBot="1">
+      <c r="B147" s="110"/>
+      <c r="C147" s="87"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="88"/>
+      <c r="H147" s="88"/>
+      <c r="I147" s="122"/>
+      <c r="J147" s="122"/>
+      <c r="K147" s="122"/>
+      <c r="L147" s="122"/>
+      <c r="M147" s="89"/>
+      <c r="N147" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C128:C145"/>
-    <mergeCell ref="C51:C81"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C99:C122"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="D130:D145"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C129:C146"/>
+    <mergeCell ref="C52:C82"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C123"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="D131:D146"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E134:E140"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J145" xr:uid="{FB69EDC1-2093-1F40-938C-F436BA6813B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J146" xr:uid="{FB69EDC1-2093-1F40-938C-F436BA6813B9}">
       <formula1>"O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13519,8 +13706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8CB62-FAF0-3447-85DF-906C8F19B86F}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -13532,7 +13719,7 @@
     </row>
     <row r="3" spans="14:14" ht="18">
       <c r="N3" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="14:14" ht="18">
@@ -13542,7 +13729,7 @@
     </row>
     <row r="33" spans="1:1" ht="18">
       <c r="A33" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -13553,6 +13740,166 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1378E-7FBF-B74B-B189-FA2518F30AA4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="220" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{25D73DB6-9825-FE4D-92AC-7EA7D0A3DA41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583C6C94-CF86-274A-881C-73D526F1C5C6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="220" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EF10A066-14CC-FB41-846E-84A80A742C55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD882A4-6A59-A84C-88A9-741E7B602446}">
+  <dimension ref="A2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+    </row>
+    <row r="3" spans="1:9" ht="44" customHeight="1">
+      <c r="A3" s="217" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="219" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+    </row>
+    <row r="6" spans="1:9" ht="242" customHeight="1">
+      <c r="A6" s="217" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="219" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="219"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+    </row>
+    <row r="9" spans="1:9" ht="113" customHeight="1">
+      <c r="A9" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1E797-E2B6-1144-9C0E-B277BAED174D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13567,7 +13914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F0AC96-D1B9-0545-B74A-675A5AC0E1F8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13580,49 +13927,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470028C7-CCAF-4844-A990-EB030ED72088}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31C063-9911-9C41-B07A-FA5B7F863046}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFE6155-3E74-8B42-B837-07E4F4001A20}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>